--- a/Lab6_Exame500_2023.xlsx
+++ b/Lab6_Exame500_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niklas/Documents/ISEG/Semester 2/Programming for Data Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{24B9DCFA-14D9-944F-8493-CDE84AF325E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{53D4614D-087A-A348-8C70-A9014A0A0904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" activeTab="1" xr2:uid="{E102B055-1C27-42B4-B269-7E12C6222EB4}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="1137">
   <si>
     <t>NIF</t>
   </si>
@@ -3509,12 +3509,6 @@
     <t>Total Liabilities (€)</t>
   </si>
   <si>
-    <t>Solvabilidade (%)</t>
-  </si>
-  <si>
-    <t>Solvency (%)</t>
-  </si>
-  <si>
     <t>Number of Employees</t>
   </si>
   <si>
@@ -3527,9 +3521,6 @@
     <t>Export variation (3 years)</t>
   </si>
   <si>
-    <t>Variação das exportações no último ano %</t>
-  </si>
-  <si>
     <t>Export variation in the last year (%)</t>
   </si>
   <si>
@@ -3546,6 +3537,9 @@
   </si>
   <si>
     <t>Indebtedness (%) = (total passivo / total ativo ) * 100</t>
+  </si>
+  <si>
+    <t>Solvency (%) = (CP / Passivo ) *100</t>
   </si>
 </sst>
 </file>
@@ -4043,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD79DCC-2E03-4C4A-86E1-E2126BF87B40}">
   <dimension ref="A1:AE501"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50512,7 +50506,7 @@
   <dimension ref="B2:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50761,7 +50755,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -50777,7 +50771,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -50793,7 +50787,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -50806,10 +50800,10 @@
     </row>
     <row r="37" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>1126</v>
+        <v>21</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="32" x14ac:dyDescent="0.2">
@@ -50817,7 +50811,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="32" x14ac:dyDescent="0.2">
@@ -50825,7 +50819,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -50833,7 +50827,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -50841,7 +50835,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -50849,7 +50843,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -50857,15 +50851,15 @@
         <v>27</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>1132</v>
+        <v>28</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
